--- a/biology/Botanique/Saule_à_oreillettes/Saule_à_oreillettes.xlsx
+++ b/biology/Botanique/Saule_à_oreillettes/Saule_à_oreillettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saule_%C3%A0_oreillettes</t>
+          <t>Saule_à_oreillettes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix aurita
 Le Saule à oreillettes (Salix aurita) ; du  genre Salix, est une espèce de plantes à fleurs de la famille des Salicacées (Salicaceae). C'est l'une des environ 350 espèces de saules. Il tire son nom de stipules de feuilles inhabituellement développées et réniformes, qui évoquent de petites oreilles.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saule_%C3%A0_oreillettes</t>
+          <t>Saule_à_oreillettes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tronc : souple les premières années, très rameux
 Feuilles : caduques, petites (1 à 4 cm), alternes, elliptiques, rugueuses et pubescentes sur le dessus, blanchâtres sur le dessous, finement dentées, terminées par une petite pointe déjetée.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saule_%C3%A0_oreillettes</t>
+          <t>Saule_à_oreillettes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce saule est relativement commun en Europe occidentale jusqu'à 1 700 m, sauf autour de la Méditerranée (excepté en Corse) et sur le trait de côte atlantique.
 Pionnier, il apprécie les situations ensoleillées ou semi-ensoleillées, les sols acides et/ou plutôt tourbeux et relativement humides.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Saule_%C3%A0_oreillettes</t>
+          <t>Saule_à_oreillettes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,14 +600,16 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante mellifère,
 espèce décorative.
 Il produit un bois homogène, stable, facile à travailler et se courbant facilement, mais peu utilisé comme bois de sculpture car ses troncs sont de faible diamètre, sauf en têtard mais le bois est alors fréquemment creux ou taché.
 Vannerie : ce saule peut fournir des branches longues et souples, traitées comme osier ou (autrefois) pour faire des liens.
 Bois de feu :  médiocre et ne produisant qu'un charbon très léger...
-Usage médicinal : sa feuille a été utilisée comme fébrifuge[1].
+Usage médicinal : sa feuille a été utilisée comme fébrifuge.
 			Salix auritaSaint-Aubin-le-Cauf, France,2010.
 			Salix auritaDétail d'une branche.
 			Salix auritaGros plan des feuilles.
